--- a/result/result_for_reporting.xlsx
+++ b/result/result_for_reporting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2456E0D-7D11-4362-8E49-97EA2045EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4F31C-C2C3-4021-8B60-E07886AAF56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computational Efficiency" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>Instance 1</t>
   </si>
@@ -64,6 +64,9 @@
   <si>
     <t>Number of Scenarios</t>
   </si>
+  <si>
+    <t>optimality gap if not optimal within 1 hour</t>
+  </si>
 </sst>
 </file>
 
@@ -78,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,11 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,20 +398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -407,246 +421,603 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>250</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="C2">
+        <v>1017</v>
+      </c>
+      <c r="E2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="C3">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="C4">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="C5">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="C6">
+        <v>444</v>
+      </c>
+      <c r="E6">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <f>AVERAGE(D2:D6)</f>
-        <v>1.266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>500</v>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>373.2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <f>AVERAGE(E2:E6)</f>
+        <v>1.6120000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="C9">
+        <v>2733</v>
+      </c>
+      <c r="E9">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="C10">
+        <v>398</v>
+      </c>
+      <c r="E10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="C11">
+        <v>823</v>
+      </c>
+      <c r="E11">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="C12">
+        <v>889</v>
+      </c>
+      <c r="E12">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="C13">
+        <v>329</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
-        <f>AVERAGE(D9:D13)</f>
-        <v>1.9460000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>1000</v>
+      <c r="C14" s="4">
+        <f>AVERAGE(C9:C13)</f>
+        <v>1034.4000000000001</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f>AVERAGE(E9:E13)</f>
+        <v>1.6419999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="C16">
+        <v>3600</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="C17">
+        <v>3061</v>
+      </c>
+      <c r="E17">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="C18">
+        <v>3600</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="C19">
+        <v>3600</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
+      <c r="C20">
+        <v>1311</v>
+      </c>
+      <c r="E20">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <f>AVERAGE(D16:D20)</f>
-        <v>1.7760000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>1500</v>
+      <c r="C21" s="4">
+        <f>AVERAGE(C16:C20)</f>
+        <v>3034.4</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <f>AVERAGE(E16:E20)</f>
+        <v>2.1240000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="C23">
+        <v>3600</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E23">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="C24">
+        <v>3600</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E24">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="C25">
+        <v>3600</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="C26">
+        <v>3600</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="C27">
+        <v>3600</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <f>AVERAGE(C23:C27)</f>
+        <v>3600</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <f>AVERAGE(E23:E27)</f>
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>500</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>3600</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E30">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3600</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E31">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3600</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E32">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3600</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3600</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C30:C34)</f>
+        <v>3600</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <f>AVERAGE(E30:E34)</f>
+        <v>1.9460000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>3600</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E37">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3600</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E38">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3600</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E39">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3600</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E40">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3600</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E41">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4">
+        <f>AVERAGE(C37:C41)</f>
+        <v>3600</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <f>AVERAGE(E37:E41)</f>
+        <v>1.7760000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
         <v>3.13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
-        <f>AVERAGE(D23:D27)</f>
+      <c r="E49">
+        <f>AVERAGE(E44:E48)</f>
         <v>2.3780000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result/result_for_reporting.xlsx
+++ b/result/result_for_reporting.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4F31C-C2C3-4021-8B60-E07886AAF56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF529409-DBD7-4C41-9DEB-864A655284DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Computational Efficiency" sheetId="1" r:id="rId1"/>
+    <sheet name="Comp Efficiency - Individual" sheetId="1" r:id="rId1"/>
+    <sheet name="Comp Efficiency - Joint" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
   <si>
     <t>Instance 1</t>
   </si>
@@ -400,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,6 +960,12 @@
       <c r="B44" t="s">
         <v>0</v>
       </c>
+      <c r="C44">
+        <v>3600</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.39</v>
+      </c>
       <c r="E44">
         <v>3.81</v>
       </c>
@@ -968,6 +975,12 @@
       <c r="B45" t="s">
         <v>1</v>
       </c>
+      <c r="C45">
+        <v>3600</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.39</v>
+      </c>
       <c r="E45">
         <v>1.52</v>
       </c>
@@ -977,6 +990,12 @@
       <c r="B46" t="s">
         <v>2</v>
       </c>
+      <c r="C46">
+        <v>3600</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E46">
         <v>1.8</v>
       </c>
@@ -986,6 +1005,12 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
+      <c r="C47">
+        <v>3600</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.4</v>
+      </c>
       <c r="E47">
         <v>1.63</v>
       </c>
@@ -995,6 +1020,12 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
+      <c r="C48">
+        <v>3600</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.43</v>
+      </c>
       <c r="E48">
         <v>3.13</v>
       </c>
@@ -1003,6 +1034,10 @@
       <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>5</v>
+      </c>
+      <c r="C49" s="4">
+        <f>AVERAGE(C44:C48)</f>
+        <v>3600</v>
       </c>
       <c r="E49">
         <f>AVERAGE(E44:E48)</f>
@@ -1021,4 +1056,408 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139EC646-79FB-49C3-8E30-CA35C352A17A}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="e">
+        <f>AVERAGE(E2:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="e">
+        <f>AVERAGE(C9:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="e">
+        <f>AVERAGE(E9:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="e">
+        <f>AVERAGE(C16:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="e">
+        <f>AVERAGE(E16:E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <f>AVERAGE(C23:C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="e">
+        <f>AVERAGE(E23:E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>500</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="e">
+        <f>AVERAGE(C30:C34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="e">
+        <f>AVERAGE(E30:E34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="e">
+        <f>AVERAGE(C37:C41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="e">
+        <f>AVERAGE(E37:E41)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="e">
+        <f>AVERAGE(C44:C48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" t="e">
+        <f>AVERAGE(E44:E48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/result_for_reporting.xlsx
+++ b/result/result_for_reporting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF529409-DBD7-4C41-9DEB-864A655284DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699FCF3E-BE82-4EF5-A2F7-CE42510B53FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp Efficiency - Individual" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="12">
   <si>
     <t>Instance 1</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>optimality gap if not optimal within 1 hour</t>
+  </si>
+  <si>
+    <t>Boolean Joint</t>
+  </si>
+  <si>
+    <t>Scenario Joint</t>
   </si>
 </sst>
 </file>
@@ -401,20 +407,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -428,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>25</v>
       </c>
@@ -442,7 +448,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -454,7 +460,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -466,7 +472,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -478,7 +484,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -490,7 +496,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -505,10 +511,10 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>50</v>
       </c>
@@ -522,7 +528,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>1</v>
@@ -534,7 +540,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>2</v>
@@ -546,7 +552,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>3</v>
@@ -558,7 +564,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>4</v>
@@ -570,7 +576,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -585,10 +591,10 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>100</v>
       </c>
@@ -605,7 +611,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>1</v>
@@ -617,7 +623,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>2</v>
@@ -632,7 +638,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>3</v>
@@ -647,7 +653,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>4</v>
@@ -659,7 +665,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -674,7 +680,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>250</v>
       </c>
@@ -691,7 +697,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>2</v>
@@ -721,7 +727,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>3</v>
@@ -736,7 +742,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>4</v>
@@ -751,7 +757,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -766,10 +772,10 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>500</v>
       </c>
@@ -786,7 +792,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>2</v>
@@ -816,7 +822,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>3</v>
@@ -831,7 +837,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>4</v>
@@ -846,7 +852,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -861,7 +867,7 @@
         <v>1.9460000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1000</v>
       </c>
@@ -878,7 +884,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>1</v>
@@ -893,7 +899,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>2</v>
@@ -908,7 +914,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>3</v>
@@ -923,7 +929,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -938,7 +944,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
         <v>5</v>
@@ -953,7 +959,7 @@
         <v>1.7760000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1500</v>
       </c>
@@ -970,7 +976,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>2</v>
@@ -1000,7 +1006,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>3</v>
@@ -1015,7 +1021,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
         <v>4</v>
@@ -1030,7 +1036,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>5</v>
@@ -1060,35 +1066,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139EC646-79FB-49C3-8E30-CA35C352A17A}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>25</v>
       </c>
@@ -1096,31 +1102,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1135,10 +1141,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>50</v>
       </c>
@@ -1146,31 +1152,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -1185,10 +1191,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>100</v>
       </c>
@@ -1197,33 +1203,33 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -1238,7 +1244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>250</v>
       </c>
@@ -1247,35 +1253,35 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -1290,10 +1296,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>500</v>
       </c>
@@ -1302,35 +1308,35 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -1345,7 +1351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1000</v>
       </c>
@@ -1353,36 +1359,51 @@
         <v>0</v>
       </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
         <v>5</v>
@@ -1392,12 +1413,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4" t="e">
+      <c r="E42" s="4">
         <f>AVERAGE(E37:E41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.5879999999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1500</v>
       </c>
@@ -1405,36 +1426,51 @@
         <v>0</v>
       </c>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>5</v>
@@ -1443,13 +1479,80 @@
         <f>AVERAGE(C44:C48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" t="e">
+      <c r="E49">
         <f>AVERAGE(E44:E48)</f>
+        <v>4.0439999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>5000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="e">
+        <f>AVERAGE(C51:C55)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E56">
+        <f>AVERAGE(E51:E55)</f>
+        <v>3.8579999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A51:A56"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>

--- a/result/result_for_reporting.xlsx
+++ b/result/result_for_reporting.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699FCF3E-BE82-4EF5-A2F7-CE42510B53FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45299DE-E59D-4BF8-9B39-5FD02D8E0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp Efficiency - Individual" sheetId="1" r:id="rId1"/>
     <sheet name="Comp Efficiency - Joint" sheetId="2" r:id="rId2"/>
+    <sheet name="Value of DDU" sheetId="3" r:id="rId3"/>
+    <sheet name="Number of MPS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Instance 1</t>
   </si>
@@ -57,29 +59,57 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Scenario Individual</t>
-  </si>
-  <si>
-    <t>Boolean Individual</t>
-  </si>
-  <si>
     <t>Number of Scenarios</t>
   </si>
   <si>
     <t>optimality gap if not optimal within 1 hour</t>
   </si>
   <si>
-    <t>Boolean Joint</t>
+    <t>Instance</t>
   </si>
   <si>
-    <t>Scenario Joint</t>
+    <t>S-DDI</t>
+  </si>
+  <si>
+    <t>B-DDI</t>
+  </si>
+  <si>
+    <t>S-DDJ</t>
+  </si>
+  <si>
+    <t>B-DDJ</t>
+  </si>
+  <si>
+    <t>Node Reliability</t>
+  </si>
+  <si>
+    <t>D-DII</t>
+  </si>
+  <si>
+    <t>Line Reliability</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,10 +147,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,12 +159,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,37 +449,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>25</v>
       </c>
       <c r="B2" t="s">
@@ -448,8 +495,10 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -460,8 +509,10 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>25</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -472,8 +523,10 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>25</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -484,8 +537,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -496,8 +551,10 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>25</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -511,11 +568,11 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>50</v>
       </c>
       <c r="B9" t="s">
@@ -528,8 +585,10 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>50</v>
+      </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -540,8 +599,10 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>50</v>
+      </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -552,8 +613,10 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>50</v>
+      </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -564,8 +627,10 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>50</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -576,8 +641,10 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>50</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -591,11 +658,11 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>100</v>
       </c>
       <c r="B16" t="s">
@@ -611,8 +678,10 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>100</v>
+      </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -623,8 +692,10 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>100</v>
+      </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -638,8 +709,10 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>100</v>
+      </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -653,8 +726,10 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>100</v>
+      </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -665,8 +740,10 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>100</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -680,8 +757,8 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>250</v>
       </c>
       <c r="B23" t="s">
@@ -697,8 +774,10 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>250</v>
+      </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -712,8 +791,10 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>250</v>
+      </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -727,8 +808,10 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>250</v>
+      </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -742,8 +825,10 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>250</v>
+      </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -757,8 +842,10 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>250</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
@@ -772,11 +859,11 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>500</v>
       </c>
       <c r="B30" t="s">
@@ -792,8 +879,10 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>500</v>
+      </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -807,8 +896,10 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>500</v>
+      </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -822,8 +913,10 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>500</v>
+      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -837,8 +930,10 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>500</v>
+      </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -852,8 +947,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>500</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
@@ -867,8 +964,8 @@
         <v>1.9460000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>1000</v>
       </c>
       <c r="B37" t="s">
@@ -884,8 +981,10 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>1000</v>
+      </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -899,8 +998,10 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>1000</v>
+      </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
@@ -914,8 +1015,10 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>1000</v>
+      </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -929,8 +1032,10 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>1000</v>
+      </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
@@ -944,8 +1049,10 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>1000</v>
+      </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
@@ -959,8 +1066,8 @@
         <v>1.7760000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>1500</v>
       </c>
       <c r="B44" t="s">
@@ -976,8 +1083,8 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -991,8 +1098,8 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>2</v>
       </c>
@@ -1006,8 +1113,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1128,8 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1036,8 +1143,8 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>5</v>
       </c>
@@ -1050,517 +1157,1468 @@
         <v>2.3780000000000001</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A21"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139EC646-79FB-49C3-8E30-CA35C352A17A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1193</v>
+      </c>
+      <c r="E2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1648</v>
+      </c>
+      <c r="E3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1251</v>
+      </c>
+      <c r="E5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2258.4</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <f>AVERAGE(E2:E6)</f>
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3600</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3600</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.01E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3600</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.23E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3600</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <f>AVERAGE(C9:C13)</f>
+        <v>3600</v>
+      </c>
+      <c r="D14" s="5">
+        <f>AVERAGE(D9:D13)</f>
+        <v>2.0599999999999997E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f>AVERAGE(E9:E13)</f>
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3600</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3600</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3600</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3600</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3600</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <f>AVERAGE(C16:C20)</f>
+        <v>3600</v>
+      </c>
+      <c r="D21" s="6">
+        <f>AVERAGE(D16:D20)</f>
+        <v>2.7660000000000001E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <f>AVERAGE(E16:E20)</f>
+        <v>2.1479999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3600</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3600</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3600</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3600</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3600</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>250</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <f>AVERAGE(C23:C27)</f>
+        <v>3600</v>
+      </c>
+      <c r="D28" s="6">
+        <f>AVERAGE(D23:D27)</f>
+        <v>6.5059999999999993E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <f>AVERAGE(E23:E27)</f>
+        <v>5.8259999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>500</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>3600</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="E30">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>500</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3600</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E31">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3600</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>500</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3600</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="E33">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>500</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3600</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="E34">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>500</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C30:C34)</f>
+        <v>3600</v>
+      </c>
+      <c r="D35" s="6">
+        <f>AVERAGE(D30:D34)</f>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <f>AVERAGE(E30:E34)</f>
+        <v>6.6059999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>3600</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="E37" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="G37">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3600</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G38">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3600</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="E39" s="9">
+        <v>7.88</v>
+      </c>
+      <c r="G39">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3600</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E40" s="9">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G40">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3600</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.1774</v>
+      </c>
+      <c r="E41" s="9">
+        <v>7.67</v>
+      </c>
+      <c r="G41">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4">
+        <f>AVERAGE(C37:C41)</f>
+        <v>3600</v>
+      </c>
+      <c r="D42" s="5">
+        <f>AVERAGE(D37:D41)</f>
+        <v>0.17944000000000002</v>
+      </c>
+      <c r="E42" s="4">
+        <f>AVERAGE(E37:E41)</f>
+        <v>6.5340000000000007</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <f>AVERAGE(G37:G41)</f>
+        <v>1.7760000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G44">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45">
+        <v>5.65</v>
+      </c>
+      <c r="G45">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46">
+        <v>6.61</v>
+      </c>
+      <c r="G46">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47">
+        <v>5.7</v>
+      </c>
+      <c r="G47">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48">
+        <v>6.08</v>
+      </c>
+      <c r="G48">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="E49">
+        <f>AVERAGE(E44:E48)</f>
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="G49">
+        <f>AVERAGE(G44:G48)</f>
+        <v>2.3780000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="9">
+        <v>6.07</v>
+      </c>
+      <c r="G51">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="9">
+        <v>5.84</v>
+      </c>
+      <c r="G52">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="9">
+        <v>7.49</v>
+      </c>
+      <c r="G53">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="9">
+        <v>7.07</v>
+      </c>
+      <c r="G54">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="9">
+        <v>6.06</v>
+      </c>
+      <c r="G55">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="E56" s="9">
+        <f>AVERAGE(E51:E55)</f>
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(G51:G55)</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="G58">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="9">
+        <v>6.58</v>
+      </c>
+      <c r="G59">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="9">
+        <v>6.35</v>
+      </c>
+      <c r="G60">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="9">
+        <v>6.46</v>
+      </c>
+      <c r="G61">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="9">
+        <v>8.11</v>
+      </c>
+      <c r="G62">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="9">
+        <f>AVERAGE(E58:E62)</f>
+        <v>7.2200000000000006</v>
+      </c>
+      <c r="G63">
+        <f>AVERAGE(G58:G62)</f>
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE943F4F-521E-4939-9CD3-C0709434BCD4}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.15</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0.95</v>
+      </c>
+      <c r="D2">
+        <v>18075</v>
+      </c>
+      <c r="E2">
+        <v>18075</v>
+      </c>
+      <c r="F2">
+        <f>(E2-D2)/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>16945</v>
+      </c>
+      <c r="E3">
+        <v>18075</v>
+      </c>
+      <c r="F3">
+        <f>(E3-D3)/E3</f>
+        <v>6.2517289073305671E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>15615</v>
+      </c>
+      <c r="E4">
+        <v>17130</v>
+      </c>
+      <c r="F4">
+        <f>(E4-D4)/E4</f>
+        <v>8.8441330998248691E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>14212</v>
+      </c>
+      <c r="E5">
+        <v>14513</v>
+      </c>
+      <c r="F5">
+        <f>(E5-D5)/E5</f>
+        <v>2.0740026183421759E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>13384.5</v>
+      </c>
+      <c r="E6">
+        <v>14212</v>
+      </c>
+      <c r="F6">
+        <f>(E6-D6)/E6</f>
+        <v>5.8225443287362795E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>11405</v>
+      </c>
+      <c r="E7">
+        <v>14212</v>
+      </c>
+      <c r="F7">
+        <f>(E7-D7)/E7</f>
+        <v>0.19750914719954968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.18</v>
+      </c>
+      <c r="B9">
+        <v>0.95</v>
+      </c>
+      <c r="C9">
+        <v>0.95</v>
+      </c>
+      <c r="D9">
+        <v>18075</v>
+      </c>
+      <c r="E9">
+        <v>18075</v>
+      </c>
+      <c r="F9">
+        <f>(E9-D9)/E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.18</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>16944</v>
+      </c>
+      <c r="E10">
+        <v>18075</v>
+      </c>
+      <c r="F10">
+        <f>(E10-D10)/E10</f>
+        <v>6.2572614107883812E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.18</v>
+      </c>
+      <c r="B11">
+        <v>0.85</v>
+      </c>
+      <c r="C11">
+        <v>0.85</v>
+      </c>
+      <c r="D11">
+        <v>15443</v>
+      </c>
+      <c r="E11">
+        <v>17130</v>
+      </c>
+      <c r="F11">
+        <f>(E11-D11)/E11</f>
+        <v>9.8482194979568005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.18</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>13384</v>
+      </c>
+      <c r="E12">
+        <v>14513</v>
+      </c>
+      <c r="F12">
+        <f>(E12-D12)/E12</f>
+        <v>7.7792324123199891E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.18</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>11144</v>
+      </c>
+      <c r="E13">
+        <v>14212</v>
+      </c>
+      <c r="F13">
+        <f>(E13-D13)/E13</f>
+        <v>0.21587390937236139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.18</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>10612</v>
+      </c>
+      <c r="E14">
+        <v>14212</v>
+      </c>
+      <c r="F14">
+        <f>(E14-D14)/E14</f>
+        <v>0.25330706445257528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.12</v>
+      </c>
+      <c r="B17">
+        <v>0.95</v>
+      </c>
+      <c r="C17">
+        <v>0.95</v>
+      </c>
+      <c r="D17">
+        <v>18075</v>
+      </c>
+      <c r="E17">
+        <v>18075</v>
+      </c>
+      <c r="F17">
+        <f>(E17-D17)/E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.12</v>
+      </c>
+      <c r="B18">
+        <v>0.9</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>17130</v>
+      </c>
+      <c r="E18">
+        <v>18075</v>
+      </c>
+      <c r="F18">
+        <f>(E18-D18)/E18</f>
+        <v>5.2282157676348549E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.12</v>
+      </c>
+      <c r="B19">
+        <v>0.85</v>
+      </c>
+      <c r="C19">
+        <v>0.85</v>
+      </c>
+      <c r="D19">
+        <v>15870</v>
+      </c>
+      <c r="E19">
+        <v>17130</v>
+      </c>
+      <c r="F19">
+        <f>(E19-D19)/E19</f>
+        <v>7.3555166374781086E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.12</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20">
+        <v>14212</v>
+      </c>
+      <c r="E20">
+        <v>14513</v>
+      </c>
+      <c r="F20">
+        <f>(E20-D20)/E20</f>
+        <v>2.0740026183421759E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.12</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
+      </c>
+      <c r="C21">
+        <v>0.75</v>
+      </c>
+      <c r="D21">
+        <v>14212</v>
+      </c>
+      <c r="E21">
+        <v>14212</v>
+      </c>
+      <c r="F21">
+        <f>(E21-D21)/E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.12</v>
+      </c>
+      <c r="B22">
+        <v>0.7</v>
+      </c>
+      <c r="C22">
+        <v>0.7</v>
+      </c>
+      <c r="D22">
+        <v>13385</v>
+      </c>
+      <c r="E22">
+        <v>14212</v>
+      </c>
+      <c r="F22">
+        <f>(E22-D22)/E22</f>
+        <v>5.8190261750633271E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AC7336-8C92-405B-A7A1-AE76DEBCA307}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="e">
-        <f>AVERAGE(E2:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="e">
-        <f>AVERAGE(C9:C13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="e">
-        <f>AVERAGE(E9:E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="e">
-        <f>AVERAGE(C16:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="e">
-        <f>AVERAGE(E16:E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>250</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4" t="e">
-        <f>AVERAGE(C23:C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="e">
-        <f>AVERAGE(E23:E27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>500</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4" t="e">
-        <f>AVERAGE(C30:C34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="e">
-        <f>AVERAGE(E30:E34)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="4" t="e">
-        <f>AVERAGE(C37:C41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4">
-        <f>AVERAGE(E37:E41)</f>
-        <v>4.5879999999999992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4" t="e">
-        <f>AVERAGE(C44:C48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49">
-        <f>AVERAGE(E44:E48)</f>
-        <v>4.0439999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
-        <v>5000</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="4" t="e">
-        <f>AVERAGE(C51:C55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56">
-        <f>AVERAGE(E51:E55)</f>
-        <v>3.8579999999999997</v>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.18</v>
+      </c>
+      <c r="C2">
+        <v>0.85</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>15443</v>
+      </c>
+      <c r="F2">
+        <v>17130</v>
+      </c>
+      <c r="G2">
+        <f>(F2-E2)/F2</f>
+        <v>9.8482194979568005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+      <c r="F3">
+        <v>17130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>17130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A42"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/result_for_reporting.xlsx
+++ b/result/result_for_reporting.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\gw_ddu_mps\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45299DE-E59D-4BF8-9B39-5FD02D8E0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB08F16-E84E-4EF2-85D4-709FB46F4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp Efficiency - Individual" sheetId="1" r:id="rId1"/>
     <sheet name="Comp Efficiency - Joint" sheetId="2" r:id="rId2"/>
     <sheet name="Value of DDU" sheetId="3" r:id="rId3"/>
     <sheet name="Number of MPS" sheetId="4" r:id="rId4"/>
+    <sheet name="MPS Capacity" sheetId="5" r:id="rId5"/>
+    <sheet name="Impact of C_j" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
   <si>
     <t>Instance 1</t>
   </si>
@@ -97,11 +99,83 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>Formatted</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Z^I</t>
+  </si>
+  <si>
+    <t>Z^D</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>100, 300, 300, 300, 300, 300</t>
+  </si>
+  <si>
+    <t>100, 100, 100, 100, 100, 300</t>
+  </si>
+  <si>
+    <t>100, 100, 100, 100, 300, 300</t>
+  </si>
+  <si>
+    <t>100, 100, 100, 300, 300, 300</t>
+  </si>
+  <si>
+    <t>100, 100, 300, 300, 300, 300</t>
+  </si>
+  <si>
+    <t>300, 300, 300, 300, 300, 500</t>
+  </si>
+  <si>
+    <t>300, 300, 300, 300, 500, 500</t>
+  </si>
+  <si>
+    <t>300, 300, 300, 500, 500, 500</t>
+  </si>
+  <si>
+    <t>300, 300, 500, 500, 500, 500</t>
+  </si>
+  <si>
+    <t>300, 500, 500, 500, 500, 500</t>
+  </si>
+  <si>
+    <t>mps capacity 300</t>
+  </si>
+  <si>
+    <t>mps capacity 100</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>c_j</t>
+  </si>
+  <si>
+    <t>Z^I - Z^D</t>
+  </si>
+  <si>
+    <t>(Z^I - Z^D) / Z^I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +211,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +260,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +283,958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Impact of C_j'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Impact of C_j'!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.25480971773627298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21759584328043813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21759584328043813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19674203061367784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9424238168796517E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0174132846510318E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.024434770397416E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.024434770397416E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.024434770397416E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6640921218929926E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.17666058137902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55D3-486F-B1DF-17CB6302C884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="662255807"/>
+        <c:axId val="662260127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="662255807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662260127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="662260127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662255807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388619</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AC2CE6-3F52-8368-0993-976C61EA61B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2116,21 +3167,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE943F4F-521E-4939-9CD3-C0709434BCD4}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2150,133 +3205,136 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>0.15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>0.95</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>0.95</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>18075</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="15">
         <v>18075</v>
       </c>
-      <c r="F2">
-        <f>(E2-D2)/E2</f>
+      <c r="F2" s="15">
+        <f t="shared" ref="F2:F7" si="0">(E2-D2)/E2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>0.15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>0.9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>0.9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>16945</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="15">
         <v>18075</v>
       </c>
-      <c r="F3">
-        <f>(E3-D3)/E3</f>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
         <v>6.2517289073305671E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>0.15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>0.85</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>0.85</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>15615</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <v>17130</v>
       </c>
-      <c r="F4">
-        <f>(E4-D4)/E4</f>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
         <v>8.8441330998248691E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>0.15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>0.8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>0.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>14212</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>14513</v>
       </c>
-      <c r="F5">
-        <f>(E5-D5)/E5</f>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
         <v>2.0740026183421759E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>0.15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>0.75</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>0.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>13384.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>14212</v>
       </c>
-      <c r="F6">
-        <f>(E6-D6)/E6</f>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
         <v>5.8225443287362795E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>0.15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>0.7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>0.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>11405</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>14212</v>
       </c>
-      <c r="F7">
-        <f>(E7-D7)/E7</f>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
         <v>0.19750914719954968</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.18</v>
       </c>
@@ -2292,12 +3350,27 @@
       <c r="E9">
         <v>18075</v>
       </c>
-      <c r="F9">
-        <f>(E9-D9)/E9</f>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:F14" si="1">(E9-D9)/E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.18</v>
       </c>
@@ -2313,12 +3386,29 @@
       <c r="E10">
         <v>18075</v>
       </c>
-      <c r="F10">
-        <f>(E10-D10)/E10</f>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
         <v>6.2572614107883812E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <v>16944</v>
+      </c>
+      <c r="M10">
+        <v>18075</v>
+      </c>
+      <c r="N10">
+        <f>M10-L10</f>
+        <v>1131</v>
+      </c>
+      <c r="O10" s="10">
+        <f>(M10-L10)/M10</f>
+        <v>6.2572614107883812E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.18</v>
       </c>
@@ -2334,12 +3424,29 @@
       <c r="E11">
         <v>17130</v>
       </c>
-      <c r="F11">
-        <f>(E11-D11)/E11</f>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
         <v>9.8482194979568005E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0.85</v>
+      </c>
+      <c r="L11">
+        <v>15443</v>
+      </c>
+      <c r="M11">
+        <v>17130</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N14" si="2">M11-L11</f>
+        <v>1687</v>
+      </c>
+      <c r="O11" s="10">
+        <f>(M11-L11)/M11</f>
+        <v>9.8482194979568005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.18</v>
       </c>
@@ -2355,12 +3462,29 @@
       <c r="E12">
         <v>14513</v>
       </c>
-      <c r="F12">
-        <f>(E12-D12)/E12</f>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
         <v>7.7792324123199891E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>13384</v>
+      </c>
+      <c r="M12">
+        <v>14513</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1129</v>
+      </c>
+      <c r="O12" s="10">
+        <f>(M12-L12)/M12</f>
+        <v>7.7792324123199891E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.18</v>
       </c>
@@ -2376,12 +3500,29 @@
       <c r="E13">
         <v>14212</v>
       </c>
-      <c r="F13">
-        <f>(E13-D13)/E13</f>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
         <v>0.21587390937236139</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+      <c r="L13">
+        <v>11144</v>
+      </c>
+      <c r="M13">
+        <v>14212</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>3068</v>
+      </c>
+      <c r="O13" s="10">
+        <f>(M13-L13)/M13</f>
+        <v>0.21587390937236139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.18</v>
       </c>
@@ -2397,135 +3538,647 @@
       <c r="E14">
         <v>14212</v>
       </c>
-      <c r="F14">
-        <f>(E14-D14)/E14</f>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
         <v>0.25330706445257528</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="K14">
+        <v>0.7</v>
+      </c>
+      <c r="L14">
+        <v>10612</v>
+      </c>
+      <c r="M14">
+        <v>14212</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="O14" s="10">
+        <f>(M14-L14)/M14</f>
+        <v>0.25330706445257528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>0.12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>0.95</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="15">
         <v>0.95</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>18075</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>18075</v>
       </c>
-      <c r="F17">
-        <f>(E17-D17)/E17</f>
+      <c r="F17" s="15">
+        <f t="shared" ref="F17:F22" si="3">(E17-D17)/E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>0.12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15">
         <v>0.9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>0.9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>17130</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>18075</v>
       </c>
-      <c r="F18">
-        <f>(E18-D18)/E18</f>
+      <c r="F18" s="15">
+        <f t="shared" si="3"/>
         <v>5.2282157676348549E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>0.12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="15">
         <v>0.85</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="15">
         <v>0.85</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>15870</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>17130</v>
       </c>
-      <c r="F19">
-        <f>(E19-D19)/E19</f>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
         <v>7.3555166374781086E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>0.12</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15">
         <v>0.8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="15">
         <v>0.8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>14212</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>14513</v>
       </c>
-      <c r="F20">
-        <f>(E20-D20)/E20</f>
+      <c r="F20" s="15">
+        <f t="shared" si="3"/>
         <v>2.0740026183421759E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>0.12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15">
         <v>0.75</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="15">
         <v>0.75</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>14212</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="15">
         <v>14212</v>
       </c>
-      <c r="F21">
-        <f>(E21-D21)/E21</f>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>0.12</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15">
         <v>0.7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="15">
         <v>0.7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>13385</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15">
         <v>14212</v>
       </c>
-      <c r="F22">
-        <f>(E22-D22)/E22</f>
+      <c r="F22" s="15">
+        <f t="shared" si="3"/>
         <v>5.8190261750633271E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.18</v>
+      </c>
+      <c r="B25">
+        <v>0.95</v>
+      </c>
+      <c r="C25">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="15">
+        <v>18075</v>
+      </c>
+      <c r="E25">
+        <v>18075</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" ref="F25:F30" si="4">(E25-D25)/E25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.18</v>
+      </c>
+      <c r="B26">
+        <v>0.9</v>
+      </c>
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="15">
+        <v>16945</v>
+      </c>
+      <c r="E26">
+        <v>18075</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="4"/>
+        <v>6.2517289073305671E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.18</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="15">
+        <v>16945</v>
+      </c>
+      <c r="L26">
+        <v>18075</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" ref="M26:M30" si="5">L26-K26</f>
+        <v>1130</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" ref="N26:N30" si="6">M26/L26</f>
+        <v>6.2517289073305671E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.18</v>
+      </c>
+      <c r="B27">
+        <v>0.85</v>
+      </c>
+      <c r="C27">
+        <v>0.85</v>
+      </c>
+      <c r="D27" s="15">
+        <v>15555</v>
+      </c>
+      <c r="E27">
+        <v>17130</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="4"/>
+        <v>9.1943957968476361E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.18</v>
+      </c>
+      <c r="I27">
+        <v>0.85</v>
+      </c>
+      <c r="J27">
+        <v>0.85</v>
+      </c>
+      <c r="K27" s="15">
+        <v>15555</v>
+      </c>
+      <c r="L27">
+        <v>17130</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="5"/>
+        <v>1575</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="6"/>
+        <v>9.1943957968476361E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.18</v>
+      </c>
+      <c r="B28">
+        <v>0.8</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>13385</v>
+      </c>
+      <c r="E28">
+        <v>14513</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="4"/>
+        <v>7.7723420381726721E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.18</v>
+      </c>
+      <c r="I28">
+        <v>0.8</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28" s="15">
+        <v>13385</v>
+      </c>
+      <c r="L28">
+        <v>14513</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="5"/>
+        <v>1128</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="6"/>
+        <v>7.7723420381726721E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.18</v>
+      </c>
+      <c r="B29">
+        <v>0.75</v>
+      </c>
+      <c r="C29">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="15">
+        <v>11435</v>
+      </c>
+      <c r="E29">
+        <v>14212</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1953982549957782</v>
+      </c>
+      <c r="H29">
+        <v>0.18</v>
+      </c>
+      <c r="I29">
+        <v>0.75</v>
+      </c>
+      <c r="J29">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="15">
+        <v>11435</v>
+      </c>
+      <c r="L29">
+        <v>14212</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="5"/>
+        <v>2777</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="6"/>
+        <v>0.1953982549957782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.18</v>
+      </c>
+      <c r="B30">
+        <v>0.7</v>
+      </c>
+      <c r="C30">
+        <v>0.7</v>
+      </c>
+      <c r="D30" s="15">
+        <v>10613</v>
+      </c>
+      <c r="E30">
+        <v>14212</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="4"/>
+        <v>0.25323670137911625</v>
+      </c>
+      <c r="H30">
+        <v>0.18</v>
+      </c>
+      <c r="I30">
+        <v>0.7</v>
+      </c>
+      <c r="J30">
+        <v>0.7</v>
+      </c>
+      <c r="K30" s="15">
+        <v>10613</v>
+      </c>
+      <c r="L30">
+        <v>14212</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="5"/>
+        <v>3599</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="6"/>
+        <v>0.25323670137911625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.18</v>
+      </c>
+      <c r="B33">
+        <v>0.95</v>
+      </c>
+      <c r="C33">
+        <v>0.95</v>
+      </c>
+      <c r="D33">
+        <v>18075</v>
+      </c>
+      <c r="E33">
+        <v>18075</v>
+      </c>
+      <c r="F33" s="14">
+        <f>(E33-D33)/E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.18</v>
+      </c>
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>0.9</v>
+      </c>
+      <c r="D34">
+        <v>17018</v>
+      </c>
+      <c r="E34">
+        <v>18075</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" ref="F34:F38" si="7">(E34-D34)/E34</f>
+        <v>5.8478561549100971E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.18</v>
+      </c>
+      <c r="I34">
+        <v>0.9</v>
+      </c>
+      <c r="J34">
+        <v>0.9</v>
+      </c>
+      <c r="K34">
+        <v>17018</v>
+      </c>
+      <c r="L34">
+        <v>18075</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" ref="M34:M38" si="8">L34-K34</f>
+        <v>1057</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" ref="N34:N38" si="9">M34/L34</f>
+        <v>5.8478561549100971E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.18</v>
+      </c>
+      <c r="B35">
+        <v>0.85</v>
+      </c>
+      <c r="C35">
+        <v>0.85</v>
+      </c>
+      <c r="D35">
+        <v>15980</v>
+      </c>
+      <c r="E35">
+        <v>17130</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="7"/>
+        <v>6.713368359603035E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.18</v>
+      </c>
+      <c r="I35">
+        <v>0.85</v>
+      </c>
+      <c r="J35">
+        <v>0.85</v>
+      </c>
+      <c r="K35">
+        <v>15980</v>
+      </c>
+      <c r="L35">
+        <v>17130</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="8"/>
+        <v>1150</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" si="9"/>
+        <v>6.713368359603035E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.18</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>13652</v>
+      </c>
+      <c r="E36">
+        <v>14513</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="7"/>
+        <v>5.9326121408392475E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.18</v>
+      </c>
+      <c r="I36">
+        <v>0.8</v>
+      </c>
+      <c r="J36">
+        <v>0.8</v>
+      </c>
+      <c r="K36">
+        <v>13652</v>
+      </c>
+      <c r="L36">
+        <v>14513</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="8"/>
+        <v>861</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="9"/>
+        <v>5.9326121408392475E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.18</v>
+      </c>
+      <c r="B37">
+        <v>0.75</v>
+      </c>
+      <c r="C37">
+        <v>0.75</v>
+      </c>
+      <c r="D37">
+        <v>13385</v>
+      </c>
+      <c r="E37">
+        <v>14212</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="7"/>
+        <v>5.8190261750633271E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.18</v>
+      </c>
+      <c r="I37">
+        <v>0.75</v>
+      </c>
+      <c r="J37">
+        <v>0.75</v>
+      </c>
+      <c r="K37">
+        <v>13385</v>
+      </c>
+      <c r="L37">
+        <v>14212</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="8"/>
+        <v>827</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="9"/>
+        <v>5.8190261750633271E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.18</v>
+      </c>
+      <c r="B38">
+        <v>0.7</v>
+      </c>
+      <c r="C38">
+        <v>0.7</v>
+      </c>
+      <c r="D38">
+        <v>12734</v>
+      </c>
+      <c r="E38">
+        <v>14212</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="7"/>
+        <v>0.10399662257247397</v>
+      </c>
+      <c r="H38">
+        <v>0.18</v>
+      </c>
+      <c r="I38">
+        <v>0.7</v>
+      </c>
+      <c r="J38">
+        <v>0.7</v>
+      </c>
+      <c r="K38">
+        <v>12734</v>
+      </c>
+      <c r="L38">
+        <v>14212</v>
+      </c>
+      <c r="M38" s="16">
+        <f t="shared" si="8"/>
+        <v>1478</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="9"/>
+        <v>0.10399662257247397</v>
       </c>
     </row>
   </sheetData>
@@ -2535,16 +4188,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AC7336-8C92-405B-A7A1-AE76DEBCA307}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
@@ -2591,7 +4245,7 @@
       <c r="F2">
         <v>17130</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <f>(F2-E2)/F2</f>
         <v>9.8482194979568005E-2</v>
       </c>
@@ -2600,25 +4254,643 @@
       <c r="A3">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>0.18</v>
+      </c>
       <c r="C3">
         <v>0.85</v>
       </c>
       <c r="D3">
         <v>0.85</v>
       </c>
+      <c r="E3">
+        <v>15187</v>
+      </c>
       <c r="F3">
         <v>17130</v>
+      </c>
+      <c r="G3" s="10">
+        <f>(F3-E3)/F3</f>
+        <v>0.11342673671920607</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>0.18</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4">
+        <v>14947</v>
+      </c>
       <c r="F4">
         <v>17130</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G11" si="0">(F4-E4)/F4</f>
+        <v>0.12743724460011677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.18</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5">
+        <v>14692</v>
+      </c>
+      <c r="F5">
+        <v>17130</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14232340922358436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.18</v>
+      </c>
+      <c r="C6">
+        <v>0.85</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+      <c r="E6">
+        <v>14512</v>
+      </c>
+      <c r="F6">
+        <v>17130</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15283129013426736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.18</v>
+      </c>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+      <c r="D7">
+        <v>0.85</v>
+      </c>
+      <c r="E7">
+        <v>14272</v>
+      </c>
+      <c r="F7">
+        <v>17130</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16684179801517804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.18</v>
+      </c>
+      <c r="C8">
+        <v>0.85</v>
+      </c>
+      <c r="D8">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>14212</v>
+      </c>
+      <c r="F8">
+        <v>17130</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17034442498540572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.18</v>
+      </c>
+      <c r="C9">
+        <v>0.85</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <v>14212</v>
+      </c>
+      <c r="F9">
+        <v>17130</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17034442498540572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0.18</v>
+      </c>
+      <c r="C10">
+        <v>0.85</v>
+      </c>
+      <c r="D10">
+        <v>0.85</v>
+      </c>
+      <c r="E10">
+        <v>14212</v>
+      </c>
+      <c r="F10">
+        <v>17130</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17034442498540572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0.18</v>
+      </c>
+      <c r="C11">
+        <v>0.85</v>
+      </c>
+      <c r="D11">
+        <v>0.85</v>
+      </c>
+      <c r="E11">
+        <v>14212</v>
+      </c>
+      <c r="F11">
+        <v>17130</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17034442498540572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB1B79B-2F1B-45C8-8B54-89337258329D}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>0.18</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>0.85</v>
+      </c>
+      <c r="F2">
+        <v>15443</v>
+      </c>
+      <c r="G2">
+        <v>17130</v>
+      </c>
+      <c r="H2" s="10">
+        <f>(G2-F2)/G2</f>
+        <v>9.8482194979568005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>15443</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>15443</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>15562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>15629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>15979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C6181-6499-40F6-A775-AF68BD1F2B69}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.18</v>
+      </c>
+      <c r="B4">
+        <v>10613</v>
+      </c>
+      <c r="C4">
+        <v>14242</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>3629</v>
+      </c>
+      <c r="E4" s="10">
+        <f>D4/C4</f>
+        <v>0.25480971773627298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.17</v>
+      </c>
+      <c r="B5">
+        <v>11143</v>
+      </c>
+      <c r="C5">
+        <v>14242</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D14" si="0">C5-B5</f>
+        <v>3099</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E14" si="1">D5/C5</f>
+        <v>0.21759584328043813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.16</v>
+      </c>
+      <c r="B6">
+        <v>11143</v>
+      </c>
+      <c r="C6">
+        <v>14242</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3099</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>0.21759584328043813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>11440</v>
+      </c>
+      <c r="C7">
+        <v>14242</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2802</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.19674203061367784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B8">
+        <v>12826</v>
+      </c>
+      <c r="C8">
+        <v>14242</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1416</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>9.9424238168796517E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.13</v>
+      </c>
+      <c r="B9">
+        <v>13385</v>
+      </c>
+      <c r="C9">
+        <v>14242</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>857</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>6.0174132846510318E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.12</v>
+      </c>
+      <c r="B10">
+        <v>13384</v>
+      </c>
+      <c r="C10">
+        <v>14242</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>6.024434770397416E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.11</v>
+      </c>
+      <c r="B11">
+        <v>13384</v>
+      </c>
+      <c r="C11">
+        <v>14242</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>6.024434770397416E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>13384</v>
+      </c>
+      <c r="C12">
+        <v>14242</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>6.024434770397416E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.09</v>
+      </c>
+      <c r="B13">
+        <v>14005</v>
+      </c>
+      <c r="C13">
+        <v>14242</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6640921218929926E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.08</v>
+      </c>
+      <c r="B14">
+        <v>14211</v>
+      </c>
+      <c r="C14">
+        <v>14242</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>2.17666058137902E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>